--- a/old_database/crypto/s2cDNASample/s2cDNASample_3357.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_3357.xlsx
@@ -40,7 +40,7 @@
     <t>11.30.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3357</t>
   </si>
 </sst>
 </file>
